--- a/Software Project 1/Source/results/mlp_mnist.xlsx
+++ b/Software Project 1/Source/results/mlp_mnist.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stefan\GitHub\MachineLearning\Software Project 1\Source\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E4EE280-9995-4D18-B053-71C7A70D561A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDE7A68D-B5A5-4466-BF13-33FAC87B458D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="mlp_fashionmnist" sheetId="1" r:id="rId1"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId2"/>
+  </externalReferences>
   <calcPr calcId="0"/>
 </workbook>
 </file>
@@ -644,6 +647,38 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>MLP (MNIST)</a:t>
+            </a:r>
+            <a:br>
+              <a:rPr lang="en-US"/>
+            </a:br>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Test Accuracy</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1529,6 +1564,1251 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>MLP</a:t>
+            </a:r>
+            <a:br>
+              <a:rPr lang="en-US"/>
+            </a:br>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Trainable Parameters</a:t>
+            </a:r>
+            <a:endParaRPr lang="ro-RO"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ro-RO"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>[1]mlp_fashionmnist!$M$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>parameters</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>[1]mlp_fashionmnist!$L$2:$L$4</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1HL 800</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2HL 250-100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3HL 300-125-50</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>[1]mlp_fashionmnist!$M$2:$M$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>636010</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>222360</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>279935</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6F46-4168-9049-821D474A5E72}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="282309920"/>
+        <c:axId val="62444240"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="282309920"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ro-RO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="62444240"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="62444240"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ro-RO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="282309920"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ro-RO"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>MLP (MNIST)</a:t>
+            </a:r>
+            <a:br>
+              <a:rPr lang="en-US"/>
+            </a:br>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Test Loss</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ro-RO"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>mlp_fashionmnist!$I$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>test_loss</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>mlp_fashionmnist!$H$2:$H$4</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1HL 800</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2HL 250-100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3HL 300-125-50</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>mlp_fashionmnist!$I$2:$I$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>6.0765388980507803E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.2498878464102703E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.2700800001621199E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1A6D-4A3D-84CC-694753F4AA6F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1383128255"/>
+        <c:axId val="1372553679"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1383128255"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ro-RO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1372553679"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1372553679"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ro-RO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1383128255"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ro-RO"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>MLP (MNIST)</a:t>
+            </a:r>
+            <a:br>
+              <a:rPr lang="en-US" sz="1800" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+            </a:br>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Validation Loss / Epoch</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ro-RO"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>mlp_fashionmnist!$D$32</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1HL 800 valid_loss</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>mlp_fashionmnist!$A$33:$A$42</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>mlp_fashionmnist!$D$33:$D$42</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.296682531634966</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.17715165267388</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.13988803451259901</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.11786709725856701</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.104974094778299</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.6221578617890602E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.2643013447523103E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.5960920502742099E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7.7914729714393602E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6.89967020104328E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0D63-4F4C-A9C2-1F71CDFE6948}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>mlp_fashionmnist!$H$32</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2HL 250-100 valid_loss</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>mlp_fashionmnist!$A$33:$A$42</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>mlp_fashionmnist!$H$33:$H$42</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.38978695372740402</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.242331802845001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.17229374498128799</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.141947189966837</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.12414023776849099</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.110720034688711</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.10318142424027101</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9.2389695346355397E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8.4831248968839604E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7.8988876193761798E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-0D63-4F4C-A9C2-1F71CDFE6948}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>mlp_fashionmnist!$L$32</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>3HL 300-125-50 valid_loss</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>mlp_fashionmnist!$A$33:$A$42</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>mlp_fashionmnist!$L$33:$L$42</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.36973213652769699</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.23610652734835899</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.165818005800247</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.12641151994466701</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.111795822779337</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.103504750877618</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9.3133779863516494E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.7991856038570404E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7.8283739586671106E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6.75398800522089E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-0D63-4F4C-A9C2-1F71CDFE6948}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1307149856"/>
+        <c:axId val="1297992720"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1307149856"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ro-RO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1297992720"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1297992720"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ro-RO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1307149856"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ro-RO"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ro-RO"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -1609,6 +2889,126 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -2113,6 +3513,1528 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -2633,15 +5555,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>7620</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:colOff>41910</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>1508760</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>857250</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2702,7 +5624,160 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>259080</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>1170539</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A3D864EC-D2E0-4498-AA44-1DEFBE9ABE87}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1082040</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1226820</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{674FD00E-1CA7-4A62-8179-2A199AF9384A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>723900</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>1249680</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{361CB677-9A3F-4096-85B2-93E567A06419}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="mlp_fashionmnist"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="1">
+          <cell r="M1" t="str">
+            <v>parameters</v>
+          </cell>
+        </row>
+        <row r="2">
+          <cell r="L2" t="str">
+            <v>1HL 800</v>
+          </cell>
+          <cell r="M2">
+            <v>636010</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="L3" t="str">
+            <v>2HL 250-100</v>
+          </cell>
+          <cell r="M3">
+            <v>222360</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="L4" t="str">
+            <v>3HL 300-125-50</v>
+          </cell>
+          <cell r="M4">
+            <v>279935</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3004,8 +6079,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C40" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J64" sqref="J64"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="F36" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K44" sqref="K44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
